--- a/data/pca/factorExposure/factorExposure_2010-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-15.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003807648766453592</v>
+        <v>0.0171175147283472</v>
       </c>
       <c r="C2">
-        <v>0.01728472146183084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001201971422849085</v>
+      </c>
+      <c r="D2">
+        <v>0.005626230155280736</v>
+      </c>
+      <c r="E2">
+        <v>-0.000553087785425373</v>
+      </c>
+      <c r="F2">
+        <v>-0.0108545610342413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02711842228653513</v>
+        <v>0.09471661884713077</v>
       </c>
       <c r="C4">
-        <v>0.1248222393948697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01586112916913995</v>
+      </c>
+      <c r="D4">
+        <v>0.08272158599427117</v>
+      </c>
+      <c r="E4">
+        <v>0.02907011503629693</v>
+      </c>
+      <c r="F4">
+        <v>0.0307519558659433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03527164076468199</v>
+        <v>0.1571256650539467</v>
       </c>
       <c r="C6">
-        <v>0.1083128506989742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02537866755013334</v>
+      </c>
+      <c r="D6">
+        <v>-0.02367994275583351</v>
+      </c>
+      <c r="E6">
+        <v>0.009303596474441785</v>
+      </c>
+      <c r="F6">
+        <v>0.04683846541891885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008939615250285551</v>
+        <v>0.06060123046549529</v>
       </c>
       <c r="C7">
-        <v>0.07373943845562451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0009542330856951571</v>
+      </c>
+      <c r="D7">
+        <v>0.05260669288922584</v>
+      </c>
+      <c r="E7">
+        <v>0.01093924982738535</v>
+      </c>
+      <c r="F7">
+        <v>0.04346914592333161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003110036641730056</v>
+        <v>0.05833435381070556</v>
       </c>
       <c r="C8">
-        <v>0.06091833889820401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01328661979741291</v>
+      </c>
+      <c r="D8">
+        <v>0.03180798045810888</v>
+      </c>
+      <c r="E8">
+        <v>0.01701688351243819</v>
+      </c>
+      <c r="F8">
+        <v>-0.02805933867284002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02327514467926451</v>
+        <v>0.07232321136138121</v>
       </c>
       <c r="C9">
-        <v>0.100553658879039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01165118366373605</v>
+      </c>
+      <c r="D9">
+        <v>0.08441040356357157</v>
+      </c>
+      <c r="E9">
+        <v>0.02365958403996824</v>
+      </c>
+      <c r="F9">
+        <v>0.04664614438700779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.008072408103678257</v>
+        <v>0.09273525943030635</v>
       </c>
       <c r="C10">
-        <v>0.02006364522329849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01927368230282574</v>
+      </c>
+      <c r="D10">
+        <v>-0.1705123417262632</v>
+      </c>
+      <c r="E10">
+        <v>-0.03752738921001118</v>
+      </c>
+      <c r="F10">
+        <v>-0.05512334722114921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02719885569109396</v>
+        <v>0.08805490600025277</v>
       </c>
       <c r="C11">
-        <v>0.1108289732247046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01130912574234399</v>
+      </c>
+      <c r="D11">
+        <v>0.1156608177777888</v>
+      </c>
+      <c r="E11">
+        <v>0.04706273260426597</v>
+      </c>
+      <c r="F11">
+        <v>0.01936815630137277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02433888391910471</v>
+        <v>0.09306986702341054</v>
       </c>
       <c r="C12">
-        <v>0.1197538624571079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008426794569667157</v>
+      </c>
+      <c r="D12">
+        <v>0.1297448523854376</v>
+      </c>
+      <c r="E12">
+        <v>0.04739135651381318</v>
+      </c>
+      <c r="F12">
+        <v>0.02435072704567992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.007239085782959463</v>
+        <v>0.04310121190419156</v>
       </c>
       <c r="C13">
-        <v>0.03675981512979345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003744560383461471</v>
+      </c>
+      <c r="D13">
+        <v>0.04929225932988922</v>
+      </c>
+      <c r="E13">
+        <v>-0.01028836153139179</v>
+      </c>
+      <c r="F13">
+        <v>0.002249753397462305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01578724421018546</v>
+        <v>0.02283502555061128</v>
       </c>
       <c r="C14">
-        <v>0.02623465420374844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01403327143972076</v>
+      </c>
+      <c r="D14">
+        <v>0.03383633929083275</v>
+      </c>
+      <c r="E14">
+        <v>0.01753039061606436</v>
+      </c>
+      <c r="F14">
+        <v>0.01383361397640491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01005623379971791</v>
+        <v>0.03152698615131918</v>
       </c>
       <c r="C15">
-        <v>0.02760494919377176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005111772539682992</v>
+      </c>
+      <c r="D15">
+        <v>0.04502252682527993</v>
+      </c>
+      <c r="E15">
+        <v>0.006738674445963297</v>
+      </c>
+      <c r="F15">
+        <v>0.0215247901031949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01643169565246851</v>
+        <v>0.07342920721660316</v>
       </c>
       <c r="C16">
-        <v>0.1145722530187342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002197437543820172</v>
+      </c>
+      <c r="D16">
+        <v>0.1259413146395277</v>
+      </c>
+      <c r="E16">
+        <v>0.06208873219939481</v>
+      </c>
+      <c r="F16">
+        <v>0.02222952784788057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02783432434015305</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003648429453082965</v>
+      </c>
+      <c r="D18">
+        <v>0.02182000762285562</v>
+      </c>
+      <c r="E18">
+        <v>-0.005976587068811128</v>
+      </c>
+      <c r="F18">
+        <v>-0.007069364654004606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01033582096694141</v>
+        <v>0.06085168347641404</v>
       </c>
       <c r="C20">
-        <v>0.06854469629171336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.00062600045203619</v>
+      </c>
+      <c r="D20">
+        <v>0.07680796632869998</v>
+      </c>
+      <c r="E20">
+        <v>0.05614605714784265</v>
+      </c>
+      <c r="F20">
+        <v>0.02118882566497789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01159968194358215</v>
+        <v>0.03946525848231523</v>
       </c>
       <c r="C21">
-        <v>0.01922540988473133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006466063202649397</v>
+      </c>
+      <c r="D21">
+        <v>0.03709252027614388</v>
+      </c>
+      <c r="E21">
+        <v>-0.005719828726638489</v>
+      </c>
+      <c r="F21">
+        <v>-0.02652100655593884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003836752433502429</v>
+        <v>0.04409799781350131</v>
       </c>
       <c r="C22">
-        <v>0.02788081654208324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.000985000118494052</v>
+      </c>
+      <c r="D22">
+        <v>0.001391783905529726</v>
+      </c>
+      <c r="E22">
+        <v>0.02781894048213765</v>
+      </c>
+      <c r="F22">
+        <v>-0.03076467470713488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003825723363870188</v>
+        <v>0.04408300656399834</v>
       </c>
       <c r="C23">
-        <v>0.02781123999229477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0009806675812712115</v>
+      </c>
+      <c r="D23">
+        <v>0.00139707149500331</v>
+      </c>
+      <c r="E23">
+        <v>0.02802096343872364</v>
+      </c>
+      <c r="F23">
+        <v>-0.03073046177312831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01637436446277941</v>
+        <v>0.08010256695903301</v>
       </c>
       <c r="C24">
-        <v>0.1152182047759029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002919355606869926</v>
+      </c>
+      <c r="D24">
+        <v>0.1196536076009848</v>
+      </c>
+      <c r="E24">
+        <v>0.0503162967168067</v>
+      </c>
+      <c r="F24">
+        <v>0.02323290289065438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02197966059026336</v>
+        <v>0.08514651312921494</v>
       </c>
       <c r="C25">
-        <v>0.1209337152346753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005129132711734963</v>
+      </c>
+      <c r="D25">
+        <v>0.1084829067759246</v>
+      </c>
+      <c r="E25">
+        <v>0.03324640736045007</v>
+      </c>
+      <c r="F25">
+        <v>0.02459658055688351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02187622643961996</v>
+        <v>0.05728591615730908</v>
       </c>
       <c r="C26">
-        <v>0.04953520437650828</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01460806756832301</v>
+      </c>
+      <c r="D26">
+        <v>0.04141687010996979</v>
+      </c>
+      <c r="E26">
+        <v>0.02809513661719201</v>
+      </c>
+      <c r="F26">
+        <v>-0.01128900875266844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.00208446181342272</v>
+        <v>0.140245979917414</v>
       </c>
       <c r="C28">
-        <v>0.01756343401486802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0188031672795623</v>
+      </c>
+      <c r="D28">
+        <v>-0.2645833742841102</v>
+      </c>
+      <c r="E28">
+        <v>-0.06841605631307049</v>
+      </c>
+      <c r="F28">
+        <v>0.008629900464533999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01266166733233186</v>
+        <v>0.02726194803123176</v>
       </c>
       <c r="C29">
-        <v>0.03292255465709795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.00822039237588406</v>
+      </c>
+      <c r="D29">
+        <v>0.03290933768858326</v>
+      </c>
+      <c r="E29">
+        <v>0.01138932467125947</v>
+      </c>
+      <c r="F29">
+        <v>-0.01112379420017717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0148963714730245</v>
+        <v>0.0625512122256706</v>
       </c>
       <c r="C30">
-        <v>0.1290085978928837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004333992568976041</v>
+      </c>
+      <c r="D30">
+        <v>0.08689032480030645</v>
+      </c>
+      <c r="E30">
+        <v>0.0211392070071424</v>
+      </c>
+      <c r="F30">
+        <v>0.08106621669357178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02173258585802592</v>
+        <v>0.04953942840678766</v>
       </c>
       <c r="C31">
-        <v>0.03707509555492393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0152685352524345</v>
+      </c>
+      <c r="D31">
+        <v>0.02513616836037551</v>
+      </c>
+      <c r="E31">
+        <v>0.02749109065113332</v>
+      </c>
+      <c r="F31">
+        <v>-0.002517185646527818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.005744270361017757</v>
+        <v>0.04928485551780867</v>
       </c>
       <c r="C32">
-        <v>0.05712575169128582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001190181430597562</v>
+      </c>
+      <c r="D32">
+        <v>0.03660316566293752</v>
+      </c>
+      <c r="E32">
+        <v>0.03134091573892692</v>
+      </c>
+      <c r="F32">
+        <v>0.0002475688488999455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02126845341543184</v>
+        <v>0.09045664850713057</v>
       </c>
       <c r="C33">
-        <v>0.1175081043182936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008338203935040723</v>
+      </c>
+      <c r="D33">
+        <v>0.09858788224027426</v>
+      </c>
+      <c r="E33">
+        <v>0.04546775576638167</v>
+      </c>
+      <c r="F33">
+        <v>0.03413965595281636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02379346742946021</v>
+        <v>0.06826016068913825</v>
       </c>
       <c r="C34">
-        <v>0.1002243508469945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01151745953360766</v>
+      </c>
+      <c r="D34">
+        <v>0.105647534715775</v>
+      </c>
+      <c r="E34">
+        <v>0.03501566354426676</v>
+      </c>
+      <c r="F34">
+        <v>0.0316474952264849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002871055812308242</v>
+        <v>0.02364179259620629</v>
       </c>
       <c r="C35">
-        <v>0.01223343709505433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002414399104776145</v>
+      </c>
+      <c r="D35">
+        <v>0.01211477207216376</v>
+      </c>
+      <c r="E35">
+        <v>0.01149958757260621</v>
+      </c>
+      <c r="F35">
+        <v>0.000974350450232063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01002859195438921</v>
+        <v>0.02593657364615995</v>
       </c>
       <c r="C36">
-        <v>0.02990331515545444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007063601383460336</v>
+      </c>
+      <c r="D36">
+        <v>0.04015634027414936</v>
+      </c>
+      <c r="E36">
+        <v>0.01602965222319046</v>
+      </c>
+      <c r="F36">
+        <v>0.01442275834199652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-4.038411754794691e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-1.148559287427732e-05</v>
+      </c>
+      <c r="D37">
+        <v>-0.0001146428639409895</v>
+      </c>
+      <c r="E37">
+        <v>-3.177447760828667e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.0003226562312821143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005378009892500328</v>
+        <v>0.001318380276249305</v>
       </c>
       <c r="C38">
-        <v>0.004445339199715107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0001925657520056068</v>
+      </c>
+      <c r="D38">
+        <v>0.0006196303034854843</v>
+      </c>
+      <c r="E38">
+        <v>0.0009100814452939233</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006356294172070525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03868664606976122</v>
+        <v>0.1075003707902408</v>
       </c>
       <c r="C39">
-        <v>0.1781292556400532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01678233367501507</v>
+      </c>
+      <c r="D39">
+        <v>0.152226480835688</v>
+      </c>
+      <c r="E39">
+        <v>0.05940530500587118</v>
+      </c>
+      <c r="F39">
+        <v>0.02693939358347901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009582578561779256</v>
+        <v>0.0398125555580074</v>
       </c>
       <c r="C40">
-        <v>0.01145558890689687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.00726090599243748</v>
+      </c>
+      <c r="D40">
+        <v>0.03236642817499618</v>
+      </c>
+      <c r="E40">
+        <v>0.003036211330494539</v>
+      </c>
+      <c r="F40">
+        <v>-0.01712422880443899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01116525357396585</v>
+        <v>0.02641436034622938</v>
       </c>
       <c r="C41">
-        <v>0.02177881991602856</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006561969718255775</v>
+      </c>
+      <c r="D41">
+        <v>0.0114043313099229</v>
+      </c>
+      <c r="E41">
+        <v>0.01248184092478921</v>
+      </c>
+      <c r="F41">
+        <v>-0.007120928972009131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01187614083437336</v>
+        <v>0.03987759979973192</v>
       </c>
       <c r="C43">
-        <v>0.02535537925391993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006777012500199024</v>
+      </c>
+      <c r="D43">
+        <v>0.02114138313499664</v>
+      </c>
+      <c r="E43">
+        <v>0.02519619930259613</v>
+      </c>
+      <c r="F43">
+        <v>-0.0126070961502416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03062793175290406</v>
+        <v>0.07815695609454343</v>
       </c>
       <c r="C44">
-        <v>0.1366457566666107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02073061832664288</v>
+      </c>
+      <c r="D44">
+        <v>0.09910984683953167</v>
+      </c>
+      <c r="E44">
+        <v>0.0678421137363662</v>
+      </c>
+      <c r="F44">
+        <v>0.1514306537382242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005845494018431732</v>
+        <v>0.02418687705563366</v>
       </c>
       <c r="C46">
-        <v>0.008522611288603061</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003797551716020765</v>
+      </c>
+      <c r="D46">
+        <v>0.0118571715487944</v>
+      </c>
+      <c r="E46">
+        <v>0.02161085715054646</v>
+      </c>
+      <c r="F46">
+        <v>-0.004605224118256803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0118302870406904</v>
+        <v>0.05062281750080551</v>
       </c>
       <c r="C47">
-        <v>0.04163664467613163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003655299280721167</v>
+      </c>
+      <c r="D47">
+        <v>0.01208676403305628</v>
+      </c>
+      <c r="E47">
+        <v>0.02254704703620732</v>
+      </c>
+      <c r="F47">
+        <v>-0.03341116286636325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01147216649488388</v>
+        <v>0.04864929291151302</v>
       </c>
       <c r="C48">
-        <v>0.04760116567216333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002509512313267772</v>
+      </c>
+      <c r="D48">
+        <v>0.05052595919228979</v>
+      </c>
+      <c r="E48">
+        <v>-0.006466734234352734</v>
+      </c>
+      <c r="F48">
+        <v>0.008382771177499913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03296172905603205</v>
+        <v>0.2007434847481972</v>
       </c>
       <c r="C49">
-        <v>0.1995702985471547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01876101518719484</v>
+      </c>
+      <c r="D49">
+        <v>-0.01104762246721846</v>
+      </c>
+      <c r="E49">
+        <v>0.0304231465485441</v>
+      </c>
+      <c r="F49">
+        <v>0.03980532922771144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01805852587067226</v>
+        <v>0.04971019089944818</v>
       </c>
       <c r="C50">
-        <v>0.04332180780820181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01128230274355757</v>
+      </c>
+      <c r="D50">
+        <v>0.02430234107656569</v>
+      </c>
+      <c r="E50">
+        <v>0.02979151227679592</v>
+      </c>
+      <c r="F50">
+        <v>0.007871893126097923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004904945194034726</v>
+        <v>0.001127391532124882</v>
       </c>
       <c r="C51">
-        <v>0.003303916690184907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003229039515431069</v>
+      </c>
+      <c r="D51">
+        <v>-0.0009005654400179843</v>
+      </c>
+      <c r="E51">
+        <v>0.0002026000757863865</v>
+      </c>
+      <c r="F51">
+        <v>0.00322571994989934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02769071376802292</v>
+        <v>0.1467116593005528</v>
       </c>
       <c r="C52">
-        <v>0.1490003457949947</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01546113858899039</v>
+      </c>
+      <c r="D52">
+        <v>0.04484752665931877</v>
+      </c>
+      <c r="E52">
+        <v>0.02027346858059011</v>
+      </c>
+      <c r="F52">
+        <v>0.04291273574662904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02592140702675749</v>
+        <v>0.1740493936193511</v>
       </c>
       <c r="C53">
-        <v>0.161648181684235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01864611308193998</v>
+      </c>
+      <c r="D53">
+        <v>0.004242389525647681</v>
+      </c>
+      <c r="E53">
+        <v>0.03139428543901046</v>
+      </c>
+      <c r="F53">
+        <v>0.07571351503488262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01457228273527652</v>
+        <v>0.02153593702915506</v>
       </c>
       <c r="C54">
-        <v>0.04683979659023071</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01242888739340297</v>
+      </c>
+      <c r="D54">
+        <v>0.03315643141693542</v>
+      </c>
+      <c r="E54">
+        <v>0.01710018607704055</v>
+      </c>
+      <c r="F54">
+        <v>-0.003471311839582181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02252736933390306</v>
+        <v>0.1143650755844928</v>
       </c>
       <c r="C55">
-        <v>0.08714678052821725</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01654041247259854</v>
+      </c>
+      <c r="D55">
+        <v>0.008887015380479387</v>
+      </c>
+      <c r="E55">
+        <v>0.02810336335095572</v>
+      </c>
+      <c r="F55">
+        <v>0.04833064088173148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02921589928331442</v>
+        <v>0.1786640106776147</v>
       </c>
       <c r="C56">
-        <v>0.1633398414997077</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01605361555670419</v>
+      </c>
+      <c r="D56">
+        <v>0.0004703507569235069</v>
+      </c>
+      <c r="E56">
+        <v>0.03655464746283765</v>
+      </c>
+      <c r="F56">
+        <v>0.05438255438896722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01017537912785042</v>
+        <v>0.04619314677903274</v>
       </c>
       <c r="C58">
-        <v>0.04632904307464117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001095257964950853</v>
+      </c>
+      <c r="D58">
+        <v>0.06719618188088779</v>
+      </c>
+      <c r="E58">
+        <v>0.02731982293509362</v>
+      </c>
+      <c r="F58">
+        <v>-0.03739257980724194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009238013720345295</v>
+        <v>0.1687681885505059</v>
       </c>
       <c r="C59">
-        <v>0.07040456454418237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01975817546153622</v>
+      </c>
+      <c r="D59">
+        <v>-0.2228248686892981</v>
+      </c>
+      <c r="E59">
+        <v>-0.04592881797829303</v>
+      </c>
+      <c r="F59">
+        <v>-0.03380615117507201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.0211500657486964</v>
+        <v>0.2342042099538877</v>
       </c>
       <c r="C60">
-        <v>0.2836533507119516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002509251779858323</v>
+      </c>
+      <c r="D60">
+        <v>0.03904479251487483</v>
+      </c>
+      <c r="E60">
+        <v>0.01046086549973117</v>
+      </c>
+      <c r="F60">
+        <v>-0.002832109443346145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.028096945899092</v>
+        <v>0.08341626856774739</v>
       </c>
       <c r="C61">
-        <v>0.1341782911373176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01268892245175582</v>
+      </c>
+      <c r="D61">
+        <v>0.1154133924110708</v>
+      </c>
+      <c r="E61">
+        <v>0.03919375323077749</v>
+      </c>
+      <c r="F61">
+        <v>0.01007871959002063</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03293241631613072</v>
+        <v>0.1705297899451962</v>
       </c>
       <c r="C62">
-        <v>0.1678507870454916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01951688601005543</v>
+      </c>
+      <c r="D62">
+        <v>0.006242126424582691</v>
+      </c>
+      <c r="E62">
+        <v>0.03546545480587564</v>
+      </c>
+      <c r="F62">
+        <v>0.03633403690196523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01094193961969715</v>
+        <v>0.04397279720794769</v>
       </c>
       <c r="C63">
-        <v>0.05673605278330655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002207205316613497</v>
+      </c>
+      <c r="D63">
+        <v>0.05879044671479156</v>
+      </c>
+      <c r="E63">
+        <v>0.02058852228857357</v>
+      </c>
+      <c r="F63">
+        <v>0.004211784464622129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02185931571614945</v>
+        <v>0.1107651359785078</v>
       </c>
       <c r="C64">
-        <v>0.1019224636893169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01164678673125004</v>
+      </c>
+      <c r="D64">
+        <v>0.04228222990545086</v>
+      </c>
+      <c r="E64">
+        <v>0.02336491093984471</v>
+      </c>
+      <c r="F64">
+        <v>0.02622195612767275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03642855512134801</v>
+        <v>0.1467277720625877</v>
       </c>
       <c r="C65">
-        <v>0.1050234892347606</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03223147194326267</v>
+      </c>
+      <c r="D65">
+        <v>-0.04202095337744845</v>
+      </c>
+      <c r="E65">
+        <v>0.003429268112568227</v>
+      </c>
+      <c r="F65">
+        <v>0.03886569347785809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03665205896342732</v>
+        <v>0.1278552163962429</v>
       </c>
       <c r="C66">
-        <v>0.2104045898514368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01488170655957797</v>
+      </c>
+      <c r="D66">
+        <v>0.1402073946068129</v>
+      </c>
+      <c r="E66">
+        <v>0.06720881147109037</v>
+      </c>
+      <c r="F66">
+        <v>0.03013780174025259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01381398527713016</v>
+        <v>0.06296316048053772</v>
       </c>
       <c r="C67">
-        <v>0.06289567734766399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003308908800555666</v>
+      </c>
+      <c r="D67">
+        <v>0.05400009076120119</v>
+      </c>
+      <c r="E67">
+        <v>0.01714163628312147</v>
+      </c>
+      <c r="F67">
+        <v>-0.03284658921256466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01297808596181501</v>
+        <v>0.1152765095988359</v>
       </c>
       <c r="C68">
-        <v>0.01901321468710844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02880805729173712</v>
+      </c>
+      <c r="D68">
+        <v>-0.2599269650230305</v>
+      </c>
+      <c r="E68">
+        <v>-0.0865478705346651</v>
+      </c>
+      <c r="F68">
+        <v>0.005575867396102945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005654005265931512</v>
+        <v>0.03950709101757274</v>
       </c>
       <c r="C69">
-        <v>0.03513928777525565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001251833004713957</v>
+      </c>
+      <c r="D69">
+        <v>0.007298417187011423</v>
+      </c>
+      <c r="E69">
+        <v>0.02325242726285582</v>
+      </c>
+      <c r="F69">
+        <v>-0.00121518536994691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001945099825611613</v>
+        <v>0.06321763143621116</v>
       </c>
       <c r="C70">
-        <v>0.03606493788930511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02816566655764705</v>
+      </c>
+      <c r="D70">
+        <v>0.02656528675679729</v>
+      </c>
+      <c r="E70">
+        <v>-0.04320828618985362</v>
+      </c>
+      <c r="F70">
+        <v>-0.1871661203304813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01739347055881952</v>
+        <v>0.1343277562373233</v>
       </c>
       <c r="C71">
-        <v>0.021419943420518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03379461071325363</v>
+      </c>
+      <c r="D71">
+        <v>-0.2744656726897385</v>
+      </c>
+      <c r="E71">
+        <v>-0.09639486922363143</v>
+      </c>
+      <c r="F71">
+        <v>0.0117926365619911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03340279248769756</v>
+        <v>0.1408479280154181</v>
       </c>
       <c r="C72">
-        <v>0.1175995080269956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02601923466114269</v>
+      </c>
+      <c r="D72">
+        <v>-0.0005685578302726894</v>
+      </c>
+      <c r="E72">
+        <v>0.03975089817921785</v>
+      </c>
+      <c r="F72">
+        <v>0.03562374546521192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03110887263962843</v>
+        <v>0.2009949453909587</v>
       </c>
       <c r="C73">
-        <v>0.2047056363906377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01307622784660512</v>
+      </c>
+      <c r="D73">
+        <v>0.01428005594514372</v>
+      </c>
+      <c r="E73">
+        <v>0.06448532782296328</v>
+      </c>
+      <c r="F73">
+        <v>0.03877687023691928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01838433468982355</v>
+        <v>0.09486436039611737</v>
       </c>
       <c r="C74">
-        <v>0.1155722574403194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01308910493077329</v>
+      </c>
+      <c r="D74">
+        <v>0.01801115477795288</v>
+      </c>
+      <c r="E74">
+        <v>0.04491571361448041</v>
+      </c>
+      <c r="F74">
+        <v>0.05749914408870122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03827259354803822</v>
+        <v>0.1289923993195582</v>
       </c>
       <c r="C75">
-        <v>0.1378950691754221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02766634178672839</v>
+      </c>
+      <c r="D75">
+        <v>0.02976074807137248</v>
+      </c>
+      <c r="E75">
+        <v>0.058660846901797</v>
+      </c>
+      <c r="F75">
+        <v>0.01931110392214584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003994340929740081</v>
+        <v>0.001213622535603803</v>
       </c>
       <c r="C76">
-        <v>0.004195122735351989</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003300600272921333</v>
+      </c>
+      <c r="D76">
+        <v>-0.001002320482969901</v>
+      </c>
+      <c r="E76">
+        <v>0.0002588617559839123</v>
+      </c>
+      <c r="F76">
+        <v>0.001467549824994866</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02143385884467267</v>
+        <v>0.08140555013474424</v>
       </c>
       <c r="C77">
-        <v>0.1078696764201273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008460001717665042</v>
+      </c>
+      <c r="D77">
+        <v>0.1169534773903184</v>
+      </c>
+      <c r="E77">
+        <v>0.04007669044796609</v>
+      </c>
+      <c r="F77">
+        <v>0.02572055732362733</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04812368521082851</v>
+        <v>0.1012406715324956</v>
       </c>
       <c r="C78">
-        <v>0.1241781369001554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03951749610199406</v>
+      </c>
+      <c r="D78">
+        <v>0.1160978314328405</v>
+      </c>
+      <c r="E78">
+        <v>0.07790997683866233</v>
+      </c>
+      <c r="F78">
+        <v>0.04529641507895544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03258310790427132</v>
+        <v>0.1647192431853059</v>
       </c>
       <c r="C79">
-        <v>0.1469441165861299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02219113899414769</v>
+      </c>
+      <c r="D79">
+        <v>0.01505174216737994</v>
+      </c>
+      <c r="E79">
+        <v>0.04683274273466762</v>
+      </c>
+      <c r="F79">
+        <v>0.01300991048761965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004701961478283726</v>
+        <v>0.08196859187702096</v>
       </c>
       <c r="C80">
-        <v>0.09433196957542657</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0006165273502494418</v>
+      </c>
+      <c r="D80">
+        <v>0.0574216149071825</v>
+      </c>
+      <c r="E80">
+        <v>0.0359993872178794</v>
+      </c>
+      <c r="F80">
+        <v>-0.0256245404093694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03996444449730559</v>
+        <v>0.1228666537219418</v>
       </c>
       <c r="C81">
-        <v>0.1516920172077273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03143857771234789</v>
+      </c>
+      <c r="D81">
+        <v>0.01511073027488624</v>
+      </c>
+      <c r="E81">
+        <v>0.0587614494469424</v>
+      </c>
+      <c r="F81">
+        <v>0.01821792970113078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03427700001244979</v>
+        <v>0.1659385378186649</v>
       </c>
       <c r="C82">
-        <v>0.1676662259647061</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02396648231948366</v>
+      </c>
+      <c r="D82">
+        <v>0.004889991430064969</v>
+      </c>
+      <c r="E82">
+        <v>0.02928979387379961</v>
+      </c>
+      <c r="F82">
+        <v>0.08177070359974214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01629482644186165</v>
+        <v>0.06167514841513824</v>
       </c>
       <c r="C83">
-        <v>0.07450681835102242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003289403112630354</v>
+      </c>
+      <c r="D83">
+        <v>0.04971484482594845</v>
+      </c>
+      <c r="E83">
+        <v>0.005972816751322421</v>
+      </c>
+      <c r="F83">
+        <v>-0.03258472130764766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02495428273726271</v>
+        <v>0.05871576419635736</v>
       </c>
       <c r="C84">
-        <v>0.07574301120755782</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01109815512432491</v>
+      </c>
+      <c r="D84">
+        <v>0.06475201888890358</v>
+      </c>
+      <c r="E84">
+        <v>0.007212471904730857</v>
+      </c>
+      <c r="F84">
+        <v>0.004721354382206836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.0347096327257756</v>
+        <v>0.1378644268086988</v>
       </c>
       <c r="C85">
-        <v>0.1223984788696839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02753328954171466</v>
+      </c>
+      <c r="D85">
+        <v>0.01046230817578291</v>
+      </c>
+      <c r="E85">
+        <v>0.03948398014347467</v>
+      </c>
+      <c r="F85">
+        <v>0.04702654257019927</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.00559167123519794</v>
+        <v>0.09629929068031987</v>
       </c>
       <c r="C86">
-        <v>0.1054039417988246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006417121755839375</v>
+      </c>
+      <c r="D86">
+        <v>0.03939550621819068</v>
+      </c>
+      <c r="E86">
+        <v>0.2067183098751489</v>
+      </c>
+      <c r="F86">
+        <v>-0.9100126449012131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03722064545052112</v>
+        <v>0.0970323106547472</v>
       </c>
       <c r="C87">
-        <v>0.1084166175595112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02067488637167385</v>
+      </c>
+      <c r="D87">
+        <v>0.09531711322028673</v>
+      </c>
+      <c r="E87">
+        <v>-0.05115881370924052</v>
+      </c>
+      <c r="F87">
+        <v>0.05183932785241094</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01216093638398923</v>
+        <v>0.06100372861686063</v>
       </c>
       <c r="C88">
-        <v>0.05878009875121025</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002493171515002331</v>
+      </c>
+      <c r="D88">
+        <v>0.0499837733963204</v>
+      </c>
+      <c r="E88">
+        <v>0.02500467552953149</v>
+      </c>
+      <c r="F88">
+        <v>0.01282215508985631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0004878407717988769</v>
+        <v>0.1315551373495532</v>
       </c>
       <c r="C89">
-        <v>0.03818823267536688</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01152360168305196</v>
+      </c>
+      <c r="D89">
+        <v>-0.252455344629689</v>
+      </c>
+      <c r="E89">
+        <v>-0.09116375273140895</v>
+      </c>
+      <c r="F89">
+        <v>-0.008309025767331035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01791776846387624</v>
+        <v>0.1467762409367213</v>
       </c>
       <c r="C90">
-        <v>0.0259308989666713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02945687250353205</v>
+      </c>
+      <c r="D90">
+        <v>-0.2668343967454831</v>
+      </c>
+      <c r="E90">
+        <v>-0.1107911649669903</v>
+      </c>
+      <c r="F90">
+        <v>-0.00247357351619222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01998804966177998</v>
+        <v>0.1196456687271759</v>
       </c>
       <c r="C91">
-        <v>0.09374607187454811</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0183647745869158</v>
+      </c>
+      <c r="D91">
+        <v>-0.01278875100046329</v>
+      </c>
+      <c r="E91">
+        <v>0.05683449691000148</v>
+      </c>
+      <c r="F91">
+        <v>-0.001564176264158965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0007419536612684732</v>
+        <v>0.1457697727271517</v>
       </c>
       <c r="C92">
-        <v>0.03830857159629126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02144935819675838</v>
+      </c>
+      <c r="D92">
+        <v>-0.2911226293883706</v>
+      </c>
+      <c r="E92">
+        <v>-0.1010068196879332</v>
+      </c>
+      <c r="F92">
+        <v>-0.01326707869421896</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01209370508657994</v>
+        <v>0.1497169971873108</v>
       </c>
       <c r="C93">
-        <v>0.02810279245027494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02561544781632486</v>
+      </c>
+      <c r="D93">
+        <v>-0.2679453100831701</v>
+      </c>
+      <c r="E93">
+        <v>-0.07806795064916847</v>
+      </c>
+      <c r="F93">
+        <v>0.003633167042520026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03699176991123466</v>
+        <v>0.1317447209166238</v>
       </c>
       <c r="C94">
-        <v>0.1611847901959585</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02460122032516154</v>
+      </c>
+      <c r="D94">
+        <v>0.04289580705628641</v>
+      </c>
+      <c r="E94">
+        <v>0.05836893616050235</v>
+      </c>
+      <c r="F94">
+        <v>0.03722170526697371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02238382295180864</v>
+        <v>0.1254486807075681</v>
       </c>
       <c r="C95">
-        <v>0.1422087553996029</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004550193242820686</v>
+      </c>
+      <c r="D95">
+        <v>0.09098712613413765</v>
+      </c>
+      <c r="E95">
+        <v>0.04648230274807423</v>
+      </c>
+      <c r="F95">
+        <v>-0.01049493488481935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9799007843998609</v>
+        <v>0.1049726215631682</v>
       </c>
       <c r="C96">
-        <v>0.1784731818384623</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879557376863038</v>
+      </c>
+      <c r="D96">
+        <v>-0.04092166338393368</v>
+      </c>
+      <c r="E96">
+        <v>0.05641192327722425</v>
+      </c>
+      <c r="F96">
+        <v>0.04255841682988942</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.001529759159331984</v>
+        <v>0.1914664162678993</v>
       </c>
       <c r="C97">
-        <v>0.1726875296761035</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008512503203083232</v>
+      </c>
+      <c r="D97">
+        <v>-0.01654354349313452</v>
+      </c>
+      <c r="E97">
+        <v>0.0151466090021233</v>
+      </c>
+      <c r="F97">
+        <v>-0.09271601332519813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02181534809672863</v>
+        <v>0.2062271234545554</v>
       </c>
       <c r="C98">
-        <v>0.1913542997252477</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007810485947529688</v>
+      </c>
+      <c r="D98">
+        <v>0.007661437247437722</v>
+      </c>
+      <c r="E98">
+        <v>-0.08621352295892569</v>
+      </c>
+      <c r="F98">
+        <v>-0.09347211732171971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003642928863412091</v>
+        <v>0.05611077883779969</v>
       </c>
       <c r="C99">
-        <v>0.0581707992527411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004349861341681719</v>
+      </c>
+      <c r="D99">
+        <v>0.03899617415202885</v>
+      </c>
+      <c r="E99">
+        <v>0.02388761284612331</v>
+      </c>
+      <c r="F99">
+        <v>0.0004749878955533322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.003987972346934736</v>
+        <v>0.1278258670265648</v>
       </c>
       <c r="C100">
-        <v>0.147973122518636</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.0527700395913984</v>
+      </c>
+      <c r="D100">
+        <v>0.3461589460226551</v>
+      </c>
+      <c r="E100">
+        <v>-0.8889350276375642</v>
+      </c>
+      <c r="F100">
+        <v>-0.1326224358794442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.012683612108382</v>
+        <v>0.02718008323803955</v>
       </c>
       <c r="C101">
-        <v>0.03289072831063269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008229574472652891</v>
+      </c>
+      <c r="D101">
+        <v>0.03261164097700205</v>
+      </c>
+      <c r="E101">
+        <v>0.0108176460950563</v>
+      </c>
+      <c r="F101">
+        <v>-0.01236687296123905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
